--- a/public/files/proveedores-base.xlsx
+++ b/public/files/proveedores-base.xlsx
@@ -1,30 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26914"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\miregistrodeventas-spa\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{742BCE0F-B1E3-41AD-8BF8-EA33459C1489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Numero</t>
+  </si>
   <si>
     <t>Nombre</t>
   </si>
@@ -41,7 +56,10 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Condicion de IVA</t>
+    <t>Condicion frente al iva</t>
+  </si>
+  <si>
+    <t>Razon social</t>
   </si>
   <si>
     <t>Cuit</t>
@@ -50,17 +68,14 @@
     <t>Observaciones</t>
   </si>
   <si>
-    <t>Razon social</t>
-  </si>
-  <si>
-    <t>Codigo</t>
+    <t>Saldo actual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,19 +124,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:J2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:J2"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="Codigo"/>
-    <tableColumn id="2" name="Nombre"/>
-    <tableColumn id="3" name="Telefono"/>
-    <tableColumn id="4" name="Direccion"/>
-    <tableColumn id="5" name="Localidad"/>
-    <tableColumn id="6" name="Email"/>
-    <tableColumn id="7" name="Condicion de IVA"/>
-    <tableColumn id="8" name="Razon social"/>
-    <tableColumn id="9" name="Cuit"/>
-    <tableColumn id="10" name="Observaciones"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:K2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Numero"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nombre"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Telefono"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Direccion"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Localidad"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Email"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Condicion frente al iva"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Razon social"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Cuit"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Observaciones"/>
+    <tableColumn id="11" xr3:uid="{CE094312-D229-4EC7-B439-7397D0DF279F}" name="Saldo actual"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -389,48 +405,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
+      <c r="K1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
